--- a/biology/Médecine/Criton_d'Héraclée/Criton_d'Héraclée.xlsx
+++ b/biology/Médecine/Criton_d'Héraclée/Criton_d'Héraclée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Criton_d%27H%C3%A9racl%C3%A9e</t>
+          <t>Criton_d'Héraclée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Criton d'Héraclée (grec ancien Κρίτων), latin : Titus Statilius Crito, T. Statilius Crito), est un médecin et un procurateur grec sous le règne de l'empereur romain Trajan (98 – 117), pendant la campagne de Dacie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Criton d'Héraclée (grec ancien Κρίτων), latin : Titus Statilius Crito, T. Statilius Crito), est un médecin et un procurateur grec sous le règne de l'empereur romain Trajan (98 – 117), pendant la campagne de Dacie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Criton_d%27H%C3%A9racl%C3%A9e</t>
+          <t>Criton_d'Héraclée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Criton d'Héraclée a écrit quatre ouvrages de cosmétique, populaires sous Claude Galien, ainsi qu'un sur l'histoire, nommé Getica (la), aujourd'hui perdu et ayant servi de base à Dacica (en) (également appelé De bello dacico) de Trajan, décrivant les guerres daciques.
 </t>
